--- a/output/trade_data_report_extracted.xlsx
+++ b/output/trade_data_report_extracted.xlsx
@@ -439,7 +439,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Transaction (Buy/Sell)</t>
+          <t>Transaction Type (Buy/Sell)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">

--- a/output/trade_data_report_extracted.xlsx
+++ b/output/trade_data_report_extracted.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Extracted Fields" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Field Metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +18,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +46,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,47 +442,57 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Trade Date</t>
+          <t>branchNM</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Settlement Date</t>
+          <t>charges</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Transaction Type (Buy/Sell)</t>
+          <t>currencyCd</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Net Amount or Consideration Amount or Nominal Amount</t>
+          <t>isinCd</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Unit Price or Price</t>
+          <t>netAmt</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Units or Shares</t>
+          <t>qty</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>ISIN or RIC</t>
+          <t>settlementDt</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Currency</t>
+          <t>stockMkt</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Company Name or Bank Name</t>
+          <t>tradeDt</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>transactionType</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>unitpx</t>
         </is>
       </c>
     </row>
@@ -481,47 +504,53 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Account Name</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Total Market Charges</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Currency</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ISIN/IISIN</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Net Money</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Settlement Date</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>Trade Date</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Settlement Date</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Buy/Sell</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Net Money</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>Price</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>ISIN/IISIN</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Currency</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Account Name</t>
         </is>
       </c>
     </row>
@@ -533,47 +562,53 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>ABCHKE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>6,961.75</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CNE000001</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>62,67,843</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>3/15/2022</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>3/15/2022</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>6267843.0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>78.4900</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>80000</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>CNE000001</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>CBHKE ABC HK A/C PBG HK</t>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>78.49</t>
         </is>
       </c>
     </row>
@@ -585,47 +620,53 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>ABCHKE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>7,097.85</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CNY</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CNE100002</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>63,90,374</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1,21,687</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>3/15/2022</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
         <is>
           <t>3/15/2022</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>6390374.0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>52.6100</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>121687</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>CNE100002</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>CNY</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>CBHKE ABC HK A/C PBG HK</t>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>52.61</t>
         </is>
       </c>
     </row>
@@ -637,49 +678,1462 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>ABCHKE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1,094.80</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>AU0000001</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2,50,019.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>58,724</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>3/17/2022</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>3/15/2022</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>3/17/2022</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>250019.4</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.2767</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>58724</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Field</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>RowIndex</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>start_index_nbr</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>end_index_nbr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>row_adder_cnt</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>col_adder_cnt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>param_ref_delim_txt</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>param_value_pos_cd</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>unit_price_pct_ind</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>param_nm_occur_ind</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>date_format_cd</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>decimal_separator_cd</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>param_def_value_txt</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>derivation_col</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>operations_seq</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>branchNM</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>265</v>
+      </c>
+      <c r="D2" t="n">
+        <v>271</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>branchNM</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>265</v>
+      </c>
+      <c r="D3" t="n">
+        <v>271</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>branchNM</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>265</v>
+      </c>
+      <c r="D4" t="n">
+        <v>271</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>charges</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>99</v>
+      </c>
+      <c r="D5" t="n">
+        <v>109</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>AU0000001</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>CBHKE ABC HK A/C PBG HK</t>
-        </is>
-      </c>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>charges</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>168</v>
+      </c>
+      <c r="D6" t="n">
+        <v>178</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>charges</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>233</v>
+      </c>
+      <c r="D7" t="n">
+        <v>242</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>currencyCd</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>57</v>
+      </c>
+      <c r="D8" t="n">
+        <v>60</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>currencyCd</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>126</v>
+      </c>
+      <c r="D9" t="n">
+        <v>129</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>currencyCd</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>192</v>
+      </c>
+      <c r="D10" t="n">
+        <v>195</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>isinCd</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>isinCd</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>70</v>
+      </c>
+      <c r="D12" t="n">
+        <v>79</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>isinCd</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>140</v>
+      </c>
+      <c r="D13" t="n">
+        <v>149</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>netAmt</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>111</v>
+      </c>
+      <c r="D14" t="n">
+        <v>120</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>netAmt</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>180</v>
+      </c>
+      <c r="D15" t="n">
+        <v>189</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>netAmt</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>244</v>
+      </c>
+      <c r="D16" t="n">
+        <v>255</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>qty</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>69</v>
+      </c>
+      <c r="D17" t="n">
+        <v>76</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>qty</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>138</v>
+      </c>
+      <c r="D18" t="n">
+        <v>145</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>qty</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>203</v>
+      </c>
+      <c r="D19" t="n">
+        <v>210</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>settlementDt</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>46</v>
+      </c>
+      <c r="D20" t="n">
+        <v>55</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>M/DD/YYYY</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>settlementDt</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>115</v>
+      </c>
+      <c r="D21" t="n">
+        <v>124</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>M/DD/YYYY</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>settlementDt</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="n">
+        <v>181</v>
+      </c>
+      <c r="D22" t="n">
+        <v>190</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>M/DD/YYYY</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>stockMkt</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>stockMkt</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>stockMkt</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>tradeDt</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>35</v>
+      </c>
+      <c r="D26" t="n">
+        <v>44</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>M/DD/YYYY</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>tradeDt</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" t="n">
+        <v>104</v>
+      </c>
+      <c r="D27" t="n">
+        <v>113</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>M/DD/YYYY</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>tradeDt</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="n">
+        <v>170</v>
+      </c>
+      <c r="D28" t="n">
+        <v>179</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>M/DD/YYYY</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>transactionType</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>32</v>
+      </c>
+      <c r="D29" t="n">
+        <v>33</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>transactionType</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" t="n">
+        <v>101</v>
+      </c>
+      <c r="D30" t="n">
+        <v>102</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>transactionType</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" t="n">
+        <v>167</v>
+      </c>
+      <c r="D31" t="n">
+        <v>168</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>unitpx</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>62</v>
+      </c>
+      <c r="D32" t="n">
+        <v>67</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>unitpx</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" t="n">
+        <v>131</v>
+      </c>
+      <c r="D33" t="n">
+        <v>136</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>unitpx</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" t="n">
+        <v>197</v>
+      </c>
+      <c r="D34" t="n">
+        <v>201</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
